--- a/Music and Memory/fMRI analysis/SeriesNumbers.xlsx
+++ b/Music and Memory/fMRI analysis/SeriesNumbers.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P101</t>
   </si>
@@ -66,6 +64,21 @@
   </si>
   <si>
     <t>P115</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>9 (longknown1)</t>
+  </si>
+  <si>
+    <t>10(longknown2)</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P203</t>
   </si>
 </sst>
 </file>
@@ -101,8 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,15 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1">
         <v>1</v>
       </c>
@@ -416,8 +433,14 @@
       <c r="I1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -475,7 +498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -504,7 +527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -533,7 +556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -562,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -591,7 +614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -620,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -649,7 +672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -678,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -707,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -736,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -765,7 +788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -794,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -823,7 +846,100 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>